--- a/data/trans_dic/P14_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P14_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>17,37%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,98</t>
+          <t>2,67; 10,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 18,87</t>
+          <t>11,06; 23,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,37</t>
+          <t>4,26; 11,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 18,71</t>
+          <t>12,96; 23,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,74</t>
+          <t>4,24; 9,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 16,97</t>
+          <t>13,81; 21,67</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,27</t>
+          <t>2,34; 10,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 18,93</t>
+          <t>9,78; 22,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 8,08</t>
+          <t>3,05; 10,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 19,45</t>
+          <t>13,14; 25,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,31</t>
+          <t>3,39; 8,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 16,95</t>
+          <t>12,92; 21,37</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,19</t>
+          <t>0,0; 14,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 24,01</t>
+          <t>2,42; 30,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,15</t>
+          <t>0,0; 13,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 23,04</t>
+          <t>5,02; 28,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,01</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 18,9</t>
+          <t>5,44; 23,66</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>16,6%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,07</t>
+          <t>2,91; 7,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 16,8</t>
+          <t>11,85; 20,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,48</t>
+          <t>4,06; 8,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 17,04</t>
+          <t>13,75; 21,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,24</t>
+          <t>4,23; 7,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,74</t>
+          <t>13,67; 19,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23904</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62242</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>37589</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>74490</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>61493</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>136732</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11499; 43173</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>40508; 85539</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21675; 57958</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>54572; 98946</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39826; 88764</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>108717; 170578</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19218</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48102</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23813</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61769</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43031</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>109871</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8402; 36369</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31131; 71968</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12991; 43167</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>44466; 87800</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26611; 67684</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>84825; 140331</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8929</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3061</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10546</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5778</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19475</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14736</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1876; 23865</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13678</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4095; 23283</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19243</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8664; 37668</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>45839</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>119273</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>64463</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>146805</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>110302</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>266077</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25898; 68988</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>90293; 156207</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42004; 90591</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>115663; 177440</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>81423; 148712</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>219096; 313204</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>